--- a/Semestres.xlsx
+++ b/Semestres.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonod\Documents\Etudes\_IUT\3A\FastNotes\fast-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7983F941-2884-4DBC-995A-CA190FD68B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C06886-CB4A-465A-808E-F0BAC9213ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D26F501A-B961-46B5-9F13-EFF13D839183}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{D26F501A-B961-46B5-9F13-EFF13D839183}"/>
   </bookViews>
   <sheets>
     <sheet name="INFOS-SEMESTRES" sheetId="1" r:id="rId1"/>
+    <sheet name="INFOS-GROUPES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>libelle</t>
   </si>
@@ -51,6 +52,30 @@
   </si>
   <si>
     <t>TEST_5</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>parcours</t>
+  </si>
+  <si>
+    <t>TEST_B</t>
+  </si>
+  <si>
+    <t>tB</t>
+  </si>
+  <si>
+    <t>AGED</t>
+  </si>
+  <si>
+    <t>TEST_C</t>
+  </si>
+  <si>
+    <t>tC</t>
+  </si>
+  <si>
+    <t>RATIO</t>
   </si>
 </sst>
 </file>
@@ -424,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189BD612-2FE2-43C7-8209-21CB060C9A47}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -457,4 +482,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02614A0A-B3AE-4BE5-8804-5C12D28460CE}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Semestres.xlsx
+++ b/Semestres.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonod\Documents\Etudes\_IUT\3A\FastNotes\fast-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C06886-CB4A-465A-808E-F0BAC9213ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B5D7FB-979C-45A3-B00C-D141F65DA4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{D26F501A-B961-46B5-9F13-EFF13D839183}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{D26F501A-B961-46B5-9F13-EFF13D839183}"/>
   </bookViews>
   <sheets>
     <sheet name="INFOS-SEMESTRES" sheetId="1" r:id="rId1"/>
     <sheet name="INFOS-GROUPES" sheetId="2" r:id="rId2"/>
+    <sheet name="INFOS-UE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>libelle</t>
   </si>
@@ -76,16 +77,66 @@
   </si>
   <si>
     <t>RATIO</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>code_competence</t>
+  </si>
+  <si>
+    <t>id_semestre</t>
+  </si>
+  <si>
+    <t>B3FTA4AB</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>TEST3</t>
+  </si>
+  <si>
+    <t>test 2 import</t>
+  </si>
+  <si>
+    <t>test 3 import</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,13 +159,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02614A0A-B3AE-4BE5-8804-5C12D28460CE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -530,4 +585,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182181E9-21F1-499F-8826-E2ED9B95605D}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>